--- a/biology/Botanique/Antidesma_pachybotryum/Antidesma_pachybotryum.xlsx
+++ b/biology/Botanique/Antidesma_pachybotryum/Antidesma_pachybotryum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antidesma pachybotryum Pax &amp; K.Hoffm. est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Antidesma, présente en Afrique tropicale. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau de 2 à 2,5 m de hauteur, à fleurs blanc verdâtre[2]. Il se distingue des autres espèces du genre Antidesma par ses grandes feuilles et son long tomentum brun. On le trouve en outre à une altitude plus importante, entre 1 000 et 1 630 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau de 2 à 2,5 m de hauteur, à fleurs blanc verdâtre. Il se distingue des autres espèces du genre Antidesma par ses grandes feuilles et son long tomentum brun. On le trouve en outre à une altitude plus importante, entre 1 000 et 1 630 m.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier spécimen a été découvert par Carl Ludwig Ledermann, au cours de son périple au Cameroun[4], le 22 janvier 1909 entre Mbanti et Tibati, dans une forêt-galerie sur un sol partiellement marécageux[2]
-Historiquement l'espèce n'est connue qu'à travers sept emplacements, situés sur un arc reliant du sud à l'est les hauts plateaux de Bamenda à ceux de l'Adamaoua (Dschang, Bamenda, Mbouda, Dom, Tibati et Tibati-Mbanti). En 1914, Mildbraed a également identifié l'espèce à Bouar en République centrafricaine. À l'exception de Dom, elle n'a plus été observée sur ces sites depuis plus de 40 ans[5]. À ce titre, elle est considérée comme vulnérable.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen a été découvert par Carl Ludwig Ledermann, au cours de son périple au Cameroun, le 22 janvier 1909 entre Mbanti et Tibati, dans une forêt-galerie sur un sol partiellement marécageux
+Historiquement l'espèce n'est connue qu'à travers sept emplacements, situés sur un arc reliant du sud à l'est les hauts plateaux de Bamenda à ceux de l'Adamaoua (Dschang, Bamenda, Mbouda, Dom, Tibati et Tibati-Mbanti). En 1914, Mildbraed a également identifié l'espèce à Bouar en République centrafricaine. À l'exception de Dom, elle n'a plus été observée sur ces sites depuis plus de 40 ans. À ce titre, elle est considérée comme vulnérable.
 </t>
         </is>
       </c>
